--- a/src/manual_test/projekat_manual.xlsx
+++ b/src/manual_test/projekat_manual.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="302">
   <si>
     <t>Scenarios</t>
   </si>
@@ -1536,12 +1536,16 @@
   <si>
     <t>In Selenium Training registration form when user skips "select country" required field and tries to submit form by clicking "send", error only says "Some error occured. Please try again.". It would be better to specify what user missed, e.g. "Please select country"</t>
   </si>
+  <si>
+    <t>In autocomplete section some common colors are missing. Like orange and pink.
+ It would be good to update the data.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1641,6 +1645,17 @@
     <font>
       <u/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1780,7 +1795,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1956,6 +1971,12 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1984,7 +2005,7 @@
     <xdr:ext cx="6772275" cy="3133725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2012,7 +2033,7 @@
     <xdr:ext cx="6772275" cy="3162300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2040,7 +2061,7 @@
     <xdr:ext cx="5562600" cy="2181225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2068,7 +2089,7 @@
     <xdr:ext cx="4943475" cy="2581275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2101,7 +2122,7 @@
     <xdr:ext cx="4381500" cy="3552825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2126,14 +2147,42 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2724150" cy="2914650"/>
+    <xdr:ext cx="3314700" cy="3543300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4495800" cy="3552825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2157,11 +2206,67 @@
     <xdr:ext cx="5619750" cy="3009900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400675" cy="3038475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5610225" cy="3000375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6771,7 +6876,8 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="72.0"/>
     <col customWidth="1" min="4" max="4" width="84.29"/>
-    <col customWidth="1" min="5" max="5" width="40.86"/>
+    <col customWidth="1" min="5" max="5" width="81.29"/>
+    <col customWidth="1" min="6" max="6" width="84.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="279.75" customHeight="1">
@@ -6786,6 +6892,7 @@
       </c>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" ht="239.25" customHeight="1">
       <c r="A2" s="63">
@@ -6798,6 +6905,8 @@
         <v>296</v>
       </c>
       <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3">
       <c r="A3" s="65">
@@ -6821,6 +6930,14 @@
       </c>
       <c r="B5" s="37" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="67">
+        <v>6.0</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
